--- a/Records_Excel/Mukesh.xlsx
+++ b/Records_Excel/Mukesh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18468" windowHeight="9335" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9024" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proposal 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,11 +19,11 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="32">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -79,22 +79,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -117,23 +102,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -166,6 +136,14 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,13 +151,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -203,7 +174,29 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -222,9 +215,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="SimSun"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <sz val="10"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <strike val="1"/>
+      <color theme="1"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="33">
@@ -236,79 +271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,13 +301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,49 +325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,12 +349,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -623,6 +658,19 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -677,19 +725,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -752,9 +787,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -767,9 +800,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -851,9 +882,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -870,6 +899,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -881,6 +923,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -927,6 +982,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -936,6 +1017,69 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,71 +1102,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,8 +1156,38 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1106,159 +1217,174 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="49" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="48" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="50" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1307,7 +1433,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1319,8 +1445,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1330,8 +1458,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1347,7 +1477,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1356,26 +1486,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1383,16 +1513,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1400,8 +1534,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1422,93 +1560,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1631,7 +1820,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1653,6 +1842,227 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -2000,27 +2410,27 @@
           <t>MELTERS:-</t>
         </is>
       </c>
-      <c r="S2" s="74" t="n"/>
+      <c r="S2" s="76" t="n"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
-      <c r="B3" s="82" t="n"/>
-      <c r="C3" s="71" t="n"/>
-      <c r="D3" s="71" t="n"/>
-      <c r="E3" s="71" t="n"/>
-      <c r="F3" s="71" t="n"/>
-      <c r="G3" s="72" t="n"/>
-      <c r="H3" s="72" t="n"/>
-      <c r="I3" s="72" t="n"/>
-      <c r="J3" s="72" t="n"/>
-      <c r="K3" s="72" t="n"/>
-      <c r="L3" s="72" t="n"/>
-      <c r="M3" s="71" t="n"/>
-      <c r="N3" s="71" t="n"/>
-      <c r="O3" s="71" t="n"/>
-      <c r="P3" s="71" t="n"/>
-      <c r="Q3" s="71" t="n"/>
-      <c r="R3" s="71" t="n"/>
-      <c r="S3" s="97" t="n"/>
+      <c r="B3" s="84" t="n"/>
+      <c r="C3" s="73" t="n"/>
+      <c r="D3" s="73" t="n"/>
+      <c r="E3" s="73" t="n"/>
+      <c r="F3" s="73" t="n"/>
+      <c r="G3" s="74" t="n"/>
+      <c r="H3" s="74" t="n"/>
+      <c r="I3" s="74" t="n"/>
+      <c r="J3" s="74" t="n"/>
+      <c r="K3" s="74" t="n"/>
+      <c r="L3" s="74" t="n"/>
+      <c r="M3" s="73" t="n"/>
+      <c r="N3" s="73" t="n"/>
+      <c r="O3" s="73" t="n"/>
+      <c r="P3" s="73" t="n"/>
+      <c r="Q3" s="73" t="n"/>
+      <c r="R3" s="73" t="n"/>
+      <c r="S3" s="102" t="n"/>
     </row>
     <row r="4" ht="15.15" customHeight="1">
       <c r="B4" s="12" t="n"/>
@@ -2033,18 +2443,18 @@
         </is>
       </c>
       <c r="G4" s="16" t="n"/>
-      <c r="H4" s="83" t="n"/>
-      <c r="I4" s="83" t="n"/>
-      <c r="J4" s="83" t="n"/>
-      <c r="K4" s="83" t="n"/>
-      <c r="L4" s="92" t="n"/>
-      <c r="M4" s="93" t="n"/>
-      <c r="N4" s="83" t="n"/>
-      <c r="O4" s="83" t="n"/>
-      <c r="P4" s="83" t="n"/>
-      <c r="Q4" s="83" t="n"/>
-      <c r="R4" s="83" t="n"/>
-      <c r="S4" s="98" t="n"/>
+      <c r="H4" s="105" t="n"/>
+      <c r="I4" s="105" t="n"/>
+      <c r="J4" s="105" t="n"/>
+      <c r="K4" s="105" t="n"/>
+      <c r="L4" s="106" t="n"/>
+      <c r="M4" s="107" t="n"/>
+      <c r="N4" s="105" t="n"/>
+      <c r="O4" s="105" t="n"/>
+      <c r="P4" s="105" t="n"/>
+      <c r="Q4" s="105" t="n"/>
+      <c r="R4" s="105" t="n"/>
+      <c r="S4" s="108" t="n"/>
     </row>
     <row r="5" ht="15.15" customHeight="1">
       <c r="B5" s="12" t="inlineStr">
@@ -2065,22 +2475,22 @@
           <t>A</t>
         </is>
       </c>
-      <c r="H5" s="84" t="n"/>
-      <c r="I5" s="84" t="n"/>
-      <c r="J5" s="84" t="n"/>
-      <c r="K5" s="84" t="n"/>
-      <c r="L5" s="94" t="n"/>
-      <c r="M5" s="76" t="inlineStr">
+      <c r="H5" s="109" t="n"/>
+      <c r="I5" s="109" t="n"/>
+      <c r="J5" s="109" t="n"/>
+      <c r="K5" s="109" t="n"/>
+      <c r="L5" s="110" t="n"/>
+      <c r="M5" s="78" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="N5" s="84" t="n"/>
-      <c r="O5" s="84" t="n"/>
-      <c r="P5" s="84" t="n"/>
-      <c r="Q5" s="84" t="n"/>
-      <c r="R5" s="84" t="n"/>
-      <c r="S5" s="95" t="n"/>
+      <c r="N5" s="109" t="n"/>
+      <c r="O5" s="109" t="n"/>
+      <c r="P5" s="109" t="n"/>
+      <c r="Q5" s="109" t="n"/>
+      <c r="R5" s="109" t="n"/>
+      <c r="S5" s="111" t="n"/>
     </row>
     <row r="6" ht="15.15" customHeight="1">
       <c r="B6" s="12" t="inlineStr">
@@ -2099,20 +2509,20 @@
       <c r="G6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="84" t="n"/>
-      <c r="I6" s="84" t="n"/>
-      <c r="J6" s="84" t="n"/>
-      <c r="K6" s="84" t="n"/>
-      <c r="L6" s="94" t="n"/>
-      <c r="M6" s="76" t="n">
+      <c r="H6" s="109" t="n"/>
+      <c r="I6" s="109" t="n"/>
+      <c r="J6" s="109" t="n"/>
+      <c r="K6" s="109" t="n"/>
+      <c r="L6" s="110" t="n"/>
+      <c r="M6" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="84" t="n"/>
-      <c r="O6" s="84" t="n"/>
-      <c r="P6" s="84" t="n"/>
-      <c r="Q6" s="84" t="n"/>
-      <c r="R6" s="84" t="n"/>
-      <c r="S6" s="95" t="n"/>
+      <c r="N6" s="109" t="n"/>
+      <c r="O6" s="109" t="n"/>
+      <c r="P6" s="109" t="n"/>
+      <c r="Q6" s="109" t="n"/>
+      <c r="R6" s="109" t="n"/>
+      <c r="S6" s="111" t="n"/>
     </row>
     <row r="7" ht="15.15" customHeight="1">
       <c r="B7" s="2" t="n"/>
@@ -2125,18 +2535,18 @@
       </c>
       <c r="F7" s="23" t="n"/>
       <c r="G7" s="20" t="n"/>
-      <c r="H7" s="84" t="n"/>
-      <c r="I7" s="84" t="n"/>
-      <c r="J7" s="84" t="n"/>
-      <c r="K7" s="84" t="n"/>
-      <c r="L7" s="94" t="n"/>
-      <c r="M7" s="76" t="n"/>
-      <c r="N7" s="84" t="n"/>
-      <c r="O7" s="84" t="n"/>
-      <c r="P7" s="84" t="n"/>
-      <c r="Q7" s="84" t="n"/>
-      <c r="R7" s="84" t="n"/>
-      <c r="S7" s="95" t="n"/>
+      <c r="H7" s="109" t="n"/>
+      <c r="I7" s="109" t="n"/>
+      <c r="J7" s="109" t="n"/>
+      <c r="K7" s="109" t="n"/>
+      <c r="L7" s="110" t="n"/>
+      <c r="M7" s="78" t="n"/>
+      <c r="N7" s="109" t="n"/>
+      <c r="O7" s="109" t="n"/>
+      <c r="P7" s="109" t="n"/>
+      <c r="Q7" s="109" t="n"/>
+      <c r="R7" s="109" t="n"/>
+      <c r="S7" s="111" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="B8" s="25" t="inlineStr">
@@ -2159,20 +2569,20 @@
       <c r="G8" s="20" t="n">
         <v>971</v>
       </c>
-      <c r="H8" s="84" t="n"/>
-      <c r="I8" s="84" t="n"/>
-      <c r="J8" s="84" t="n"/>
-      <c r="K8" s="84" t="n"/>
-      <c r="L8" s="94" t="n"/>
-      <c r="M8" s="76" t="n">
+      <c r="H8" s="109" t="n"/>
+      <c r="I8" s="109" t="n"/>
+      <c r="J8" s="109" t="n"/>
+      <c r="K8" s="109" t="n"/>
+      <c r="L8" s="110" t="n"/>
+      <c r="M8" s="78" t="n">
         <v>477</v>
       </c>
-      <c r="N8" s="84" t="n"/>
-      <c r="O8" s="84" t="n"/>
-      <c r="P8" s="84" t="n"/>
-      <c r="Q8" s="84" t="n"/>
-      <c r="R8" s="84" t="n"/>
-      <c r="S8" s="95" t="n"/>
+      <c r="N8" s="109" t="n"/>
+      <c r="O8" s="109" t="n"/>
+      <c r="P8" s="109" t="n"/>
+      <c r="Q8" s="109" t="n"/>
+      <c r="R8" s="109" t="n"/>
+      <c r="S8" s="111" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="30" t="n"/>
@@ -2182,8 +2592,8 @@
           <t>Cu</t>
         </is>
       </c>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="66" t="inlineStr">
+      <c r="E9" s="62" t="n"/>
+      <c r="F9" s="68" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2191,20 +2601,20 @@
       <c r="G9" s="20" t="n">
         <v>39.5</v>
       </c>
-      <c r="H9" s="84" t="n"/>
-      <c r="I9" s="84" t="n"/>
-      <c r="J9" s="84" t="n"/>
-      <c r="K9" s="84" t="n"/>
-      <c r="L9" s="94" t="n"/>
-      <c r="M9" s="76" t="n">
+      <c r="H9" s="109" t="n"/>
+      <c r="I9" s="109" t="n"/>
+      <c r="J9" s="109" t="n"/>
+      <c r="K9" s="109" t="n"/>
+      <c r="L9" s="110" t="n"/>
+      <c r="M9" s="78" t="n">
         <v>19.7</v>
       </c>
-      <c r="N9" s="84" t="n"/>
-      <c r="O9" s="84" t="n"/>
-      <c r="P9" s="84" t="n"/>
-      <c r="Q9" s="84" t="n"/>
-      <c r="R9" s="84" t="n"/>
-      <c r="S9" s="95" t="n"/>
+      <c r="N9" s="109" t="n"/>
+      <c r="O9" s="109" t="n"/>
+      <c r="P9" s="109" t="n"/>
+      <c r="Q9" s="109" t="n"/>
+      <c r="R9" s="109" t="n"/>
+      <c r="S9" s="111" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="30" t="n"/>
@@ -2214,8 +2624,8 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="66" t="inlineStr">
+      <c r="E10" s="62" t="n"/>
+      <c r="F10" s="68" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2223,20 +2633,20 @@
       <c r="G10" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="H10" s="84" t="n"/>
-      <c r="I10" s="84" t="n"/>
-      <c r="J10" s="84" t="n"/>
-      <c r="K10" s="84" t="n"/>
-      <c r="L10" s="94" t="n"/>
-      <c r="M10" s="76" t="n">
+      <c r="H10" s="109" t="n"/>
+      <c r="I10" s="109" t="n"/>
+      <c r="J10" s="109" t="n"/>
+      <c r="K10" s="109" t="n"/>
+      <c r="L10" s="110" t="n"/>
+      <c r="M10" s="78" t="n">
         <v>27</v>
       </c>
-      <c r="N10" s="84" t="n"/>
-      <c r="O10" s="84" t="n"/>
-      <c r="P10" s="84" t="n"/>
-      <c r="Q10" s="84" t="n"/>
-      <c r="R10" s="84" t="n"/>
-      <c r="S10" s="95" t="n"/>
+      <c r="N10" s="109" t="n"/>
+      <c r="O10" s="109" t="n"/>
+      <c r="P10" s="109" t="n"/>
+      <c r="Q10" s="109" t="n"/>
+      <c r="R10" s="109" t="n"/>
+      <c r="S10" s="111" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="30" t="n"/>
@@ -2246,8 +2656,8 @@
           <t>Mg</t>
         </is>
       </c>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="66" t="inlineStr">
+      <c r="E11" s="62" t="n"/>
+      <c r="F11" s="68" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2255,20 +2665,20 @@
       <c r="G11" s="20" t="n">
         <v>1.717</v>
       </c>
-      <c r="H11" s="84" t="n"/>
-      <c r="I11" s="84" t="n"/>
-      <c r="J11" s="84" t="n"/>
-      <c r="K11" s="84" t="n"/>
-      <c r="L11" s="94" t="n"/>
-      <c r="M11" s="76" t="n">
+      <c r="H11" s="109" t="n"/>
+      <c r="I11" s="109" t="n"/>
+      <c r="J11" s="109" t="n"/>
+      <c r="K11" s="109" t="n"/>
+      <c r="L11" s="110" t="n"/>
+      <c r="M11" s="78" t="n">
         <v>0.8120000000000001</v>
       </c>
-      <c r="N11" s="84" t="n"/>
-      <c r="O11" s="84" t="n"/>
-      <c r="P11" s="84" t="n"/>
-      <c r="Q11" s="84" t="n"/>
-      <c r="R11" s="84" t="n"/>
-      <c r="S11" s="95" t="n"/>
+      <c r="N11" s="109" t="n"/>
+      <c r="O11" s="109" t="n"/>
+      <c r="P11" s="109" t="n"/>
+      <c r="Q11" s="109" t="n"/>
+      <c r="R11" s="109" t="n"/>
+      <c r="S11" s="111" t="n"/>
     </row>
     <row r="12" ht="15.15" customHeight="1">
       <c r="B12" s="35" t="n"/>
@@ -2278,12 +2688,12 @@
           <t xml:space="preserve">TiB </t>
         </is>
       </c>
-      <c r="E12" s="61" t="inlineStr">
+      <c r="E12" s="62" t="inlineStr">
         <is>
           <t>As per instruction</t>
         </is>
       </c>
-      <c r="F12" s="66" t="inlineStr">
+      <c r="F12" s="68" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2291,20 +2701,20 @@
       <c r="G12" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="H12" s="84" t="n"/>
-      <c r="I12" s="84" t="n"/>
-      <c r="J12" s="84" t="n"/>
-      <c r="K12" s="84" t="n"/>
-      <c r="L12" s="94" t="n"/>
-      <c r="M12" s="76" t="n">
+      <c r="H12" s="109" t="n"/>
+      <c r="I12" s="109" t="n"/>
+      <c r="J12" s="109" t="n"/>
+      <c r="K12" s="109" t="n"/>
+      <c r="L12" s="110" t="n"/>
+      <c r="M12" s="78" t="n">
         <v>10</v>
       </c>
-      <c r="N12" s="84" t="n"/>
-      <c r="O12" s="84" t="n"/>
-      <c r="P12" s="84" t="n"/>
-      <c r="Q12" s="84" t="n"/>
-      <c r="R12" s="84" t="n"/>
-      <c r="S12" s="95" t="n"/>
+      <c r="N12" s="109" t="n"/>
+      <c r="O12" s="109" t="n"/>
+      <c r="P12" s="109" t="n"/>
+      <c r="Q12" s="109" t="n"/>
+      <c r="R12" s="109" t="n"/>
+      <c r="S12" s="111" t="n"/>
     </row>
     <row r="13" ht="15.15" customHeight="1">
       <c r="B13" s="39" t="inlineStr">
@@ -2324,25 +2734,25 @@
           <t>KG</t>
         </is>
       </c>
-      <c r="G13" s="99">
+      <c r="G13" s="112">
         <f>SUM(G8:G12)</f>
         <v/>
       </c>
-      <c r="H13" s="84" t="n"/>
-      <c r="I13" s="84" t="n"/>
-      <c r="J13" s="84" t="n"/>
-      <c r="K13" s="84" t="n"/>
-      <c r="L13" s="95" t="n"/>
-      <c r="M13" s="99">
+      <c r="H13" s="109" t="n"/>
+      <c r="I13" s="109" t="n"/>
+      <c r="J13" s="109" t="n"/>
+      <c r="K13" s="109" t="n"/>
+      <c r="L13" s="111" t="n"/>
+      <c r="M13" s="112">
         <f>SUM(M8:M12)</f>
         <v/>
       </c>
-      <c r="N13" s="84" t="n"/>
-      <c r="O13" s="84" t="n"/>
-      <c r="P13" s="84" t="n"/>
-      <c r="Q13" s="84" t="n"/>
-      <c r="R13" s="84" t="n"/>
-      <c r="S13" s="95" t="n"/>
+      <c r="N13" s="109" t="n"/>
+      <c r="O13" s="109" t="n"/>
+      <c r="P13" s="109" t="n"/>
+      <c r="Q13" s="109" t="n"/>
+      <c r="R13" s="109" t="n"/>
+      <c r="S13" s="111" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="B14" s="49" t="inlineStr">
@@ -2363,18 +2773,18 @@
         </is>
       </c>
       <c r="G14" s="20" t="n"/>
-      <c r="H14" s="84" t="n"/>
-      <c r="I14" s="84" t="n"/>
-      <c r="J14" s="84" t="n"/>
-      <c r="K14" s="84" t="n"/>
-      <c r="L14" s="94" t="n"/>
-      <c r="M14" s="76" t="n"/>
-      <c r="N14" s="84" t="n"/>
-      <c r="O14" s="84" t="n"/>
-      <c r="P14" s="84" t="n"/>
-      <c r="Q14" s="84" t="n"/>
-      <c r="R14" s="84" t="n"/>
-      <c r="S14" s="95" t="n"/>
+      <c r="H14" s="109" t="n"/>
+      <c r="I14" s="109" t="n"/>
+      <c r="J14" s="109" t="n"/>
+      <c r="K14" s="109" t="n"/>
+      <c r="L14" s="110" t="n"/>
+      <c r="M14" s="78" t="n"/>
+      <c r="N14" s="109" t="n"/>
+      <c r="O14" s="109" t="n"/>
+      <c r="P14" s="109" t="n"/>
+      <c r="Q14" s="109" t="n"/>
+      <c r="R14" s="109" t="n"/>
+      <c r="S14" s="111" t="n"/>
     </row>
     <row r="15" ht="15.15" customHeight="1">
       <c r="B15" s="51" t="n"/>
@@ -2391,18 +2801,18 @@
         </is>
       </c>
       <c r="G15" s="20" t="n"/>
-      <c r="H15" s="84" t="n"/>
-      <c r="I15" s="84" t="n"/>
-      <c r="J15" s="84" t="n"/>
-      <c r="K15" s="84" t="n"/>
-      <c r="L15" s="94" t="n"/>
-      <c r="M15" s="76" t="n"/>
-      <c r="N15" s="84" t="n"/>
-      <c r="O15" s="84" t="n"/>
-      <c r="P15" s="84" t="n"/>
-      <c r="Q15" s="84" t="n"/>
-      <c r="R15" s="84" t="n"/>
-      <c r="S15" s="95" t="n"/>
+      <c r="H15" s="109" t="n"/>
+      <c r="I15" s="109" t="n"/>
+      <c r="J15" s="109" t="n"/>
+      <c r="K15" s="109" t="n"/>
+      <c r="L15" s="110" t="n"/>
+      <c r="M15" s="78" t="n"/>
+      <c r="N15" s="109" t="n"/>
+      <c r="O15" s="109" t="n"/>
+      <c r="P15" s="109" t="n"/>
+      <c r="Q15" s="109" t="n"/>
+      <c r="R15" s="109" t="n"/>
+      <c r="S15" s="111" t="n"/>
     </row>
     <row r="16" ht="15.15" customHeight="1">
       <c r="B16" s="52" t="n"/>
@@ -2419,20 +2829,20 @@
         </is>
       </c>
       <c r="G16" s="20" t="n"/>
-      <c r="H16" s="84" t="n"/>
-      <c r="I16" s="84" t="n"/>
-      <c r="J16" s="84" t="n"/>
-      <c r="K16" s="84" t="n"/>
-      <c r="L16" s="94" t="n"/>
-      <c r="M16" s="76" t="n">
+      <c r="H16" s="109" t="n"/>
+      <c r="I16" s="109" t="n"/>
+      <c r="J16" s="109" t="n"/>
+      <c r="K16" s="109" t="n"/>
+      <c r="L16" s="110" t="n"/>
+      <c r="M16" s="78" t="n">
         <v>516</v>
       </c>
-      <c r="N16" s="84" t="n"/>
-      <c r="O16" s="84" t="n"/>
-      <c r="P16" s="84" t="n"/>
-      <c r="Q16" s="84" t="n"/>
-      <c r="R16" s="84" t="n"/>
-      <c r="S16" s="95" t="n"/>
+      <c r="N16" s="109" t="n"/>
+      <c r="O16" s="109" t="n"/>
+      <c r="P16" s="109" t="n"/>
+      <c r="Q16" s="109" t="n"/>
+      <c r="R16" s="109" t="n"/>
+      <c r="S16" s="111" t="n"/>
     </row>
     <row r="17" ht="15.15" customHeight="1">
       <c r="B17" s="45" t="inlineStr">
@@ -2453,18 +2863,18 @@
         </is>
       </c>
       <c r="G17" s="20" t="n"/>
-      <c r="H17" s="84" t="n"/>
-      <c r="I17" s="84" t="n"/>
-      <c r="J17" s="84" t="n"/>
-      <c r="K17" s="84" t="n"/>
-      <c r="L17" s="94" t="n"/>
-      <c r="M17" s="76" t="n"/>
-      <c r="N17" s="84" t="n"/>
-      <c r="O17" s="84" t="n"/>
-      <c r="P17" s="84" t="n"/>
-      <c r="Q17" s="84" t="n"/>
-      <c r="R17" s="84" t="n"/>
-      <c r="S17" s="95" t="n"/>
+      <c r="H17" s="109" t="n"/>
+      <c r="I17" s="109" t="n"/>
+      <c r="J17" s="109" t="n"/>
+      <c r="K17" s="109" t="n"/>
+      <c r="L17" s="110" t="n"/>
+      <c r="M17" s="78" t="n"/>
+      <c r="N17" s="109" t="n"/>
+      <c r="O17" s="109" t="n"/>
+      <c r="P17" s="109" t="n"/>
+      <c r="Q17" s="109" t="n"/>
+      <c r="R17" s="109" t="n"/>
+      <c r="S17" s="111" t="n"/>
     </row>
     <row r="18" ht="15.15" customHeight="1">
       <c r="B18" s="23" t="inlineStr">
@@ -2485,21 +2895,21 @@
         </is>
       </c>
       <c r="G18" s="20" t="n"/>
-      <c r="H18" s="84" t="n"/>
-      <c r="I18" s="84" t="n"/>
-      <c r="J18" s="84" t="n"/>
-      <c r="K18" s="84" t="n"/>
-      <c r="L18" s="94" t="n"/>
-      <c r="M18" s="76">
+      <c r="H18" s="109" t="n"/>
+      <c r="I18" s="109" t="n"/>
+      <c r="J18" s="109" t="n"/>
+      <c r="K18" s="109" t="n"/>
+      <c r="L18" s="110" t="n"/>
+      <c r="M18" s="78">
         <f>+M16+M13</f>
         <v/>
       </c>
-      <c r="N18" s="84" t="n"/>
-      <c r="O18" s="84" t="n"/>
-      <c r="P18" s="84" t="n"/>
-      <c r="Q18" s="84" t="n"/>
-      <c r="R18" s="84" t="n"/>
-      <c r="S18" s="95" t="n"/>
+      <c r="N18" s="109" t="n"/>
+      <c r="O18" s="109" t="n"/>
+      <c r="P18" s="109" t="n"/>
+      <c r="Q18" s="109" t="n"/>
+      <c r="R18" s="109" t="n"/>
+      <c r="S18" s="111" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="B19" s="49" t="inlineStr">
@@ -2518,7 +2928,7 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="F19" s="65" t="inlineStr">
+      <c r="F19" s="66" t="inlineStr">
         <is>
           <t>Timing</t>
         </is>
@@ -2528,22 +2938,22 @@
           <t>7.30 Am</t>
         </is>
       </c>
-      <c r="H19" s="84" t="n"/>
-      <c r="I19" s="84" t="n"/>
-      <c r="J19" s="84" t="n"/>
-      <c r="K19" s="84" t="n"/>
-      <c r="L19" s="94" t="n"/>
-      <c r="M19" s="76" t="inlineStr">
+      <c r="H19" s="109" t="n"/>
+      <c r="I19" s="109" t="n"/>
+      <c r="J19" s="109" t="n"/>
+      <c r="K19" s="109" t="n"/>
+      <c r="L19" s="110" t="n"/>
+      <c r="M19" s="78" t="inlineStr">
         <is>
           <t>8.50AM</t>
         </is>
       </c>
-      <c r="N19" s="84" t="n"/>
-      <c r="O19" s="84" t="n"/>
-      <c r="P19" s="84" t="n"/>
-      <c r="Q19" s="84" t="n"/>
-      <c r="R19" s="84" t="n"/>
-      <c r="S19" s="95" t="n"/>
+      <c r="N19" s="109" t="n"/>
+      <c r="O19" s="109" t="n"/>
+      <c r="P19" s="109" t="n"/>
+      <c r="Q19" s="109" t="n"/>
+      <c r="R19" s="109" t="n"/>
+      <c r="S19" s="111" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="B20" s="51" t="n"/>
@@ -2552,9 +2962,9 @@
           <t>CHARGING END AT</t>
         </is>
       </c>
-      <c r="D20" s="61" t="n"/>
+      <c r="D20" s="62" t="n"/>
       <c r="E20" s="5" t="n"/>
-      <c r="F20" s="65" t="inlineStr">
+      <c r="F20" s="66" t="inlineStr">
         <is>
           <t>Timing</t>
         </is>
@@ -2564,22 +2974,22 @@
           <t>8.16 AM</t>
         </is>
       </c>
-      <c r="H20" s="84" t="n"/>
-      <c r="I20" s="84" t="n"/>
-      <c r="J20" s="84" t="n"/>
-      <c r="K20" s="84" t="n"/>
-      <c r="L20" s="94" t="n"/>
-      <c r="M20" s="76" t="inlineStr">
+      <c r="H20" s="109" t="n"/>
+      <c r="I20" s="109" t="n"/>
+      <c r="J20" s="109" t="n"/>
+      <c r="K20" s="109" t="n"/>
+      <c r="L20" s="110" t="n"/>
+      <c r="M20" s="78" t="inlineStr">
         <is>
           <t>9.30AM</t>
         </is>
       </c>
-      <c r="N20" s="84" t="n"/>
-      <c r="O20" s="84" t="n"/>
-      <c r="P20" s="84" t="n"/>
-      <c r="Q20" s="84" t="n"/>
-      <c r="R20" s="84" t="n"/>
-      <c r="S20" s="95" t="n"/>
+      <c r="N20" s="109" t="n"/>
+      <c r="O20" s="109" t="n"/>
+      <c r="P20" s="109" t="n"/>
+      <c r="Q20" s="109" t="n"/>
+      <c r="R20" s="109" t="n"/>
+      <c r="S20" s="111" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="51" t="n"/>
@@ -2588,13 +2998,13 @@
           <t xml:space="preserve">MELT READY AT </t>
         </is>
       </c>
-      <c r="D21" s="61" t="n"/>
+      <c r="D21" s="62" t="n"/>
       <c r="E21" s="5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F21" s="65" t="inlineStr">
+      <c r="F21" s="66" t="inlineStr">
         <is>
           <t>Timing</t>
         </is>
@@ -2604,22 +3014,22 @@
           <t>8.45 AM</t>
         </is>
       </c>
-      <c r="H21" s="84" t="n"/>
-      <c r="I21" s="84" t="n"/>
-      <c r="J21" s="84" t="n"/>
-      <c r="K21" s="84" t="n"/>
-      <c r="L21" s="94" t="n"/>
-      <c r="M21" s="76" t="inlineStr">
+      <c r="H21" s="109" t="n"/>
+      <c r="I21" s="109" t="n"/>
+      <c r="J21" s="109" t="n"/>
+      <c r="K21" s="109" t="n"/>
+      <c r="L21" s="110" t="n"/>
+      <c r="M21" s="78" t="inlineStr">
         <is>
           <t>10.00AM</t>
         </is>
       </c>
-      <c r="N21" s="84" t="n"/>
-      <c r="O21" s="84" t="n"/>
-      <c r="P21" s="84" t="n"/>
-      <c r="Q21" s="84" t="n"/>
-      <c r="R21" s="84" t="n"/>
-      <c r="S21" s="95" t="n"/>
+      <c r="N21" s="109" t="n"/>
+      <c r="O21" s="109" t="n"/>
+      <c r="P21" s="109" t="n"/>
+      <c r="Q21" s="109" t="n"/>
+      <c r="R21" s="109" t="n"/>
+      <c r="S21" s="111" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="51" t="n"/>
@@ -2628,9 +3038,9 @@
           <t>MELT CHEMISTRY</t>
         </is>
       </c>
-      <c r="D22" s="61" t="n"/>
+      <c r="D22" s="62" t="n"/>
       <c r="E22" s="5" t="n"/>
-      <c r="F22" s="86" t="inlineStr">
+      <c r="F22" s="91" t="inlineStr">
         <is>
           <t>OK / NOT  OK</t>
         </is>
@@ -2640,22 +3050,22 @@
           <t>OK / NOT OK</t>
         </is>
       </c>
-      <c r="H22" s="84" t="n"/>
-      <c r="I22" s="84" t="n"/>
-      <c r="J22" s="84" t="n"/>
-      <c r="K22" s="84" t="n"/>
-      <c r="L22" s="94" t="n"/>
-      <c r="M22" s="76" t="inlineStr">
+      <c r="H22" s="109" t="n"/>
+      <c r="I22" s="109" t="n"/>
+      <c r="J22" s="109" t="n"/>
+      <c r="K22" s="109" t="n"/>
+      <c r="L22" s="110" t="n"/>
+      <c r="M22" s="78" t="inlineStr">
         <is>
           <t>OK / NOT OK</t>
         </is>
       </c>
-      <c r="N22" s="84" t="n"/>
-      <c r="O22" s="84" t="n"/>
-      <c r="P22" s="84" t="n"/>
-      <c r="Q22" s="84" t="n"/>
-      <c r="R22" s="84" t="n"/>
-      <c r="S22" s="95" t="n"/>
+      <c r="N22" s="109" t="n"/>
+      <c r="O22" s="109" t="n"/>
+      <c r="P22" s="109" t="n"/>
+      <c r="Q22" s="109" t="n"/>
+      <c r="R22" s="109" t="n"/>
+      <c r="S22" s="111" t="n"/>
     </row>
     <row r="23" ht="15.15" customHeight="1">
       <c r="B23" s="51" t="n"/>
@@ -2664,9 +3074,9 @@
           <t>TEMP BEFORE TAPPING</t>
         </is>
       </c>
-      <c r="D23" s="63" t="n"/>
+      <c r="D23" s="64" t="n"/>
       <c r="E23" s="6" t="n"/>
-      <c r="F23" s="87" t="inlineStr">
+      <c r="F23" s="92" t="inlineStr">
         <is>
           <t>770°C ± 20°C</t>
         </is>
@@ -2676,22 +3086,22 @@
           <t>780°C</t>
         </is>
       </c>
-      <c r="H23" s="84" t="n"/>
-      <c r="I23" s="84" t="n"/>
-      <c r="J23" s="84" t="n"/>
-      <c r="K23" s="84" t="n"/>
-      <c r="L23" s="94" t="n"/>
-      <c r="M23" s="76" t="inlineStr">
+      <c r="H23" s="109" t="n"/>
+      <c r="I23" s="109" t="n"/>
+      <c r="J23" s="109" t="n"/>
+      <c r="K23" s="109" t="n"/>
+      <c r="L23" s="110" t="n"/>
+      <c r="M23" s="78" t="inlineStr">
         <is>
           <t>780°C</t>
         </is>
       </c>
-      <c r="N23" s="84" t="n"/>
-      <c r="O23" s="84" t="n"/>
-      <c r="P23" s="84" t="n"/>
-      <c r="Q23" s="84" t="n"/>
-      <c r="R23" s="84" t="n"/>
-      <c r="S23" s="95" t="n"/>
+      <c r="N23" s="109" t="n"/>
+      <c r="O23" s="109" t="n"/>
+      <c r="P23" s="109" t="n"/>
+      <c r="Q23" s="109" t="n"/>
+      <c r="R23" s="109" t="n"/>
+      <c r="S23" s="111" t="n"/>
     </row>
     <row r="24" ht="15.15" customHeight="1">
       <c r="B24" s="51" t="n"/>
@@ -2706,7 +3116,7 @@
           <t>N.A</t>
         </is>
       </c>
-      <c r="F24" s="65" t="n"/>
+      <c r="F24" s="66" t="n"/>
       <c r="G24" s="57" t="n">
         <v>2</v>
       </c>
@@ -2747,7 +3157,7 @@
           <t>Line-2</t>
         </is>
       </c>
-      <c r="S24" s="78" t="n"/>
+      <c r="S24" s="80" t="n"/>
     </row>
     <row r="25" ht="15.15" customHeight="1">
       <c r="B25" s="51" t="n"/>
@@ -2762,7 +3172,7 @@
           <t>N.A</t>
         </is>
       </c>
-      <c r="F25" s="65" t="n"/>
+      <c r="F25" s="66" t="n"/>
       <c r="G25" s="57" t="n">
         <v>216</v>
       </c>
@@ -2803,7 +3213,7 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="S25" s="78" t="n"/>
+      <c r="S25" s="80" t="n"/>
     </row>
     <row r="26" ht="15.15" customHeight="1">
       <c r="B26" s="51" t="n"/>
@@ -2875,7 +3285,7 @@
           <t>ODA</t>
         </is>
       </c>
-      <c r="S26" s="78" t="n"/>
+      <c r="S26" s="80" t="n"/>
     </row>
     <row r="27" ht="15.15" customHeight="1">
       <c r="B27" s="51" t="n"/>
@@ -2890,7 +3300,7 @@
           <t>N.A</t>
         </is>
       </c>
-      <c r="F27" s="65" t="inlineStr">
+      <c r="F27" s="66" t="inlineStr">
         <is>
           <t>WITH FILTER</t>
         </is>
@@ -2955,7 +3365,7 @@
           <t>DONE / NOT DONE</t>
         </is>
       </c>
-      <c r="S27" s="78" t="n"/>
+      <c r="S27" s="80" t="n"/>
     </row>
     <row r="28" ht="15.15" customHeight="1">
       <c r="B28" s="51" t="n"/>
@@ -2970,7 +3380,7 @@
           <t>N.A</t>
         </is>
       </c>
-      <c r="F28" s="65" t="inlineStr">
+      <c r="F28" s="66" t="inlineStr">
         <is>
           <t>720°C ± 20°C</t>
         </is>
@@ -3035,7 +3445,7 @@
           <t>725°C</t>
         </is>
       </c>
-      <c r="S28" s="78" t="n"/>
+      <c r="S28" s="80" t="n"/>
     </row>
     <row r="29" ht="15.15" customHeight="1">
       <c r="B29" s="51" t="n"/>
@@ -3050,7 +3460,7 @@
           <t>For 230 Kg melt</t>
         </is>
       </c>
-      <c r="F29" s="65" t="inlineStr">
+      <c r="F29" s="66" t="inlineStr">
         <is>
           <t>600gm ± 60gm</t>
         </is>
@@ -3115,7 +3525,7 @@
           <t>600gm</t>
         </is>
       </c>
-      <c r="S29" s="78" t="n"/>
+      <c r="S29" s="80" t="n"/>
     </row>
     <row r="30" ht="35.25" customHeight="1">
       <c r="B30" s="51" t="n"/>
@@ -3130,72 +3540,72 @@
           <t>For 230 Kg melt</t>
         </is>
       </c>
-      <c r="F30" s="88" t="inlineStr">
+      <c r="F30" s="93" t="inlineStr">
         <is>
           <t>N2 flow 20 LPM Min. pressure - 6 BAR max. Time -10 min.</t>
         </is>
       </c>
-      <c r="G30" s="89" t="inlineStr">
+      <c r="G30" s="94" t="inlineStr">
         <is>
           <t>9.10 AM TO 9.20AM</t>
         </is>
       </c>
-      <c r="H30" s="89" t="inlineStr">
+      <c r="H30" s="94" t="inlineStr">
         <is>
           <t>9.20 AM TO 9.30AM</t>
         </is>
       </c>
-      <c r="I30" s="89" t="inlineStr">
+      <c r="I30" s="94" t="inlineStr">
         <is>
           <t>9.10 AM TO 9.20AM</t>
         </is>
       </c>
-      <c r="J30" s="89" t="inlineStr">
+      <c r="J30" s="94" t="inlineStr">
         <is>
           <t>9.15AM TO 9.25AM</t>
         </is>
       </c>
-      <c r="K30" s="89" t="inlineStr">
+      <c r="K30" s="94" t="inlineStr">
         <is>
           <t>9.10 AM TO 9.20AM</t>
         </is>
       </c>
-      <c r="L30" s="89" t="inlineStr">
+      <c r="L30" s="94" t="inlineStr">
         <is>
           <t>CONT</t>
         </is>
       </c>
-      <c r="M30" s="89" t="inlineStr">
+      <c r="M30" s="94" t="inlineStr">
         <is>
           <t>10.10 AM TO 10.20AM</t>
         </is>
       </c>
-      <c r="N30" s="96" t="inlineStr">
+      <c r="N30" s="101" t="inlineStr">
         <is>
           <t>10.20 AM TO 10.30AM</t>
         </is>
       </c>
-      <c r="O30" s="96" t="inlineStr">
+      <c r="O30" s="101" t="inlineStr">
         <is>
           <t>10.10AM TO 10.20AM</t>
         </is>
       </c>
-      <c r="P30" s="96" t="inlineStr">
+      <c r="P30" s="101" t="inlineStr">
         <is>
           <t>10.15AM TO 10.25AM</t>
         </is>
       </c>
-      <c r="Q30" s="96" t="inlineStr">
+      <c r="Q30" s="101" t="inlineStr">
         <is>
           <t>10.10AM TO 10.20AM</t>
         </is>
       </c>
-      <c r="R30" s="96" t="inlineStr">
+      <c r="R30" s="101" t="inlineStr">
         <is>
           <t>CONT</t>
         </is>
       </c>
-      <c r="S30" s="78" t="n"/>
+      <c r="S30" s="80" t="n"/>
     </row>
     <row r="31" ht="15.15" customHeight="1">
       <c r="B31" s="51" t="n"/>
@@ -3210,7 +3620,7 @@
           <t>N.A</t>
         </is>
       </c>
-      <c r="F31" s="65" t="inlineStr">
+      <c r="F31" s="66" t="inlineStr">
         <is>
           <t>720°C ± 20°C</t>
         </is>
@@ -3275,7 +3685,7 @@
           <t>725°C</t>
         </is>
       </c>
-      <c r="S31" s="78" t="n"/>
+      <c r="S31" s="80" t="n"/>
     </row>
     <row r="32" ht="15.15" customHeight="1">
       <c r="B32" s="51" t="n"/>
@@ -3286,7 +3696,7 @@
       </c>
       <c r="D32" s="14" t="n"/>
       <c r="E32" s="5" t="n"/>
-      <c r="F32" s="65" t="inlineStr">
+      <c r="F32" s="66" t="inlineStr">
         <is>
           <t>Timing</t>
         </is>
@@ -3351,7 +3761,7 @@
           <t>CONT</t>
         </is>
       </c>
-      <c r="S32" s="78" t="n"/>
+      <c r="S32" s="80" t="n"/>
     </row>
     <row r="33" ht="15.15" customHeight="1">
       <c r="B33" s="51" t="n"/>
@@ -3427,7 +3837,7 @@
           <t>CONT</t>
         </is>
       </c>
-      <c r="S33" s="78" t="n"/>
+      <c r="S33" s="80" t="n"/>
     </row>
     <row r="34" ht="15.15" customHeight="1">
       <c r="B34" s="51" t="n"/>
@@ -3451,7 +3861,7 @@
       <c r="P34" s="57" t="n"/>
       <c r="Q34" s="57" t="n"/>
       <c r="R34" s="57" t="n"/>
-      <c r="S34" s="78" t="n"/>
+      <c r="S34" s="80" t="n"/>
     </row>
     <row r="35" ht="15.15" customHeight="1">
       <c r="B35" s="51" t="n"/>
@@ -3460,7 +3870,7 @@
           <t>every interval</t>
         </is>
       </c>
-      <c r="D35" s="63" t="n"/>
+      <c r="D35" s="64" t="n"/>
       <c r="E35" s="5" t="n"/>
       <c r="F35" s="42" t="n"/>
       <c r="G35" s="57" t="n"/>
@@ -3475,14 +3885,14 @@
       <c r="P35" s="57" t="n"/>
       <c r="Q35" s="57" t="n"/>
       <c r="R35" s="57" t="n"/>
-      <c r="S35" s="78" t="n"/>
+      <c r="S35" s="80" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="51" t="n"/>
       <c r="C36" s="5" t="n"/>
-      <c r="D36" s="61" t="n"/>
+      <c r="D36" s="62" t="n"/>
       <c r="E36" s="5" t="n"/>
-      <c r="F36" s="65" t="n"/>
+      <c r="F36" s="66" t="n"/>
       <c r="G36" s="57" t="n"/>
       <c r="H36" s="57" t="n"/>
       <c r="I36" s="57" t="n"/>
@@ -3495,14 +3905,14 @@
       <c r="P36" s="57" t="n"/>
       <c r="Q36" s="57" t="n"/>
       <c r="R36" s="57" t="n"/>
-      <c r="S36" s="78" t="n"/>
+      <c r="S36" s="80" t="n"/>
     </row>
     <row r="37" ht="15.15" customHeight="1">
       <c r="B37" s="52" t="n"/>
       <c r="C37" s="6" t="n"/>
-      <c r="D37" s="63" t="n"/>
+      <c r="D37" s="64" t="n"/>
       <c r="E37" s="6" t="n"/>
-      <c r="F37" s="65" t="n"/>
+      <c r="F37" s="66" t="n"/>
       <c r="G37" s="57" t="n"/>
       <c r="H37" s="57" t="n"/>
       <c r="I37" s="57" t="n"/>
@@ -3510,54 +3920,54 @@
       <c r="K37" s="57" t="n"/>
       <c r="L37" s="57" t="n"/>
       <c r="M37" s="21" t="n"/>
-      <c r="N37" s="77" t="n"/>
-      <c r="O37" s="77" t="n"/>
-      <c r="P37" s="77" t="n"/>
-      <c r="Q37" s="77" t="n"/>
-      <c r="R37" s="77" t="n"/>
-      <c r="S37" s="78" t="n"/>
-    </row>
-    <row r="38" ht="15.15" customHeight="1">
+      <c r="N37" s="79" t="n"/>
+      <c r="O37" s="79" t="n"/>
+      <c r="P37" s="79" t="n"/>
+      <c r="Q37" s="79" t="n"/>
+      <c r="R37" s="79" t="n"/>
+      <c r="S37" s="80" t="n"/>
+    </row>
+    <row r="38">
       <c r="B38" s="5" t="inlineStr">
         <is>
           <t>REMARK IN ANY</t>
         </is>
       </c>
-      <c r="D38" s="61" t="n"/>
-      <c r="E38" s="33" t="n"/>
-      <c r="F38" s="66" t="n"/>
-      <c r="G38" s="67" t="n"/>
-      <c r="H38" s="90" t="n"/>
-      <c r="I38" s="90" t="n"/>
-      <c r="J38" s="90" t="n"/>
-      <c r="K38" s="90" t="n"/>
-      <c r="L38" s="90" t="n"/>
-      <c r="M38" s="68" t="n"/>
-      <c r="N38" s="68" t="n"/>
-      <c r="O38" s="68" t="n"/>
-      <c r="P38" s="68" t="n"/>
-      <c r="Q38" s="68" t="n"/>
-      <c r="R38" s="68" t="n"/>
-      <c r="S38" s="80" t="n"/>
+      <c r="D38" s="62" t="n"/>
+      <c r="E38" s="67" t="n"/>
+      <c r="F38" s="68" t="n"/>
+      <c r="G38" s="113" t="n"/>
+      <c r="H38" s="95" t="n"/>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="114" t="n"/>
+      <c r="N38" s="114" t="n"/>
+      <c r="O38" s="114" t="n"/>
+      <c r="P38" s="114" t="n"/>
+      <c r="Q38" s="114" t="n"/>
+      <c r="R38" s="114" t="n"/>
+      <c r="S38" s="115" t="n"/>
     </row>
     <row r="39" ht="48.75" customHeight="1">
       <c r="B39" s="5" t="n"/>
-      <c r="D39" s="61" t="n"/>
-      <c r="E39" s="33" t="n"/>
-      <c r="F39" s="66" t="n"/>
-      <c r="G39" s="69" t="n"/>
-      <c r="H39" s="91" t="n"/>
-      <c r="I39" s="91" t="n"/>
-      <c r="J39" s="91" t="n"/>
-      <c r="K39" s="91" t="n"/>
-      <c r="L39" s="91" t="n"/>
-      <c r="M39" s="70" t="n"/>
-      <c r="N39" s="70" t="n"/>
-      <c r="O39" s="70" t="n"/>
-      <c r="P39" s="70" t="n"/>
-      <c r="Q39" s="70" t="n"/>
-      <c r="R39" s="70" t="n"/>
-      <c r="S39" s="81" t="n"/>
+      <c r="D39" s="62" t="n"/>
+      <c r="E39" s="67" t="n"/>
+      <c r="F39" s="68" t="n"/>
+      <c r="G39" s="116" t="n"/>
+      <c r="H39" s="96" t="n"/>
+      <c r="I39" s="96" t="n"/>
+      <c r="J39" s="96" t="n"/>
+      <c r="K39" s="96" t="n"/>
+      <c r="L39" s="96" t="n"/>
+      <c r="M39" s="117" t="n"/>
+      <c r="N39" s="117" t="n"/>
+      <c r="O39" s="117" t="n"/>
+      <c r="P39" s="117" t="n"/>
+      <c r="Q39" s="117" t="n"/>
+      <c r="R39" s="117" t="n"/>
+      <c r="S39" s="118" t="n"/>
     </row>
     <row r="40">
       <c r="B40" s="2" t="n"/>
@@ -3565,46 +3975,46 @@
       <c r="D40" s="3" t="n"/>
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
-      <c r="S40" s="61" t="n"/>
+      <c r="S40" s="62" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="5" t="n"/>
-      <c r="S41" s="61" t="n"/>
+      <c r="S41" s="62" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="5" t="n"/>
-      <c r="S42" s="61" t="n"/>
+      <c r="S42" s="62" t="n"/>
     </row>
     <row r="43" ht="18" customHeight="1">
       <c r="B43" s="5" t="n"/>
-      <c r="C43" s="71" t="inlineStr">
+      <c r="C43" s="73" t="inlineStr">
         <is>
           <t>Production Supervisor</t>
         </is>
       </c>
-      <c r="D43" s="71" t="n"/>
-      <c r="E43" s="71" t="n"/>
-      <c r="F43" s="71" t="n"/>
-      <c r="G43" s="72" t="n"/>
-      <c r="H43" s="72" t="n"/>
-      <c r="I43" s="72" t="n"/>
-      <c r="J43" s="72" t="n"/>
-      <c r="K43" s="72" t="n"/>
-      <c r="L43" s="72" t="n"/>
-      <c r="M43" s="71" t="n"/>
-      <c r="N43" s="71" t="n"/>
-      <c r="O43" s="71" t="n"/>
-      <c r="P43" s="71" t="inlineStr">
+      <c r="D43" s="73" t="n"/>
+      <c r="E43" s="73" t="n"/>
+      <c r="F43" s="73" t="n"/>
+      <c r="G43" s="74" t="n"/>
+      <c r="H43" s="74" t="n"/>
+      <c r="I43" s="74" t="n"/>
+      <c r="J43" s="74" t="n"/>
+      <c r="K43" s="74" t="n"/>
+      <c r="L43" s="74" t="n"/>
+      <c r="M43" s="73" t="n"/>
+      <c r="N43" s="73" t="n"/>
+      <c r="O43" s="73" t="n"/>
+      <c r="P43" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">Q.A Supervisor </t>
         </is>
       </c>
-      <c r="Q43" s="71" t="n"/>
-      <c r="S43" s="61" t="n"/>
+      <c r="Q43" s="73" t="n"/>
+      <c r="S43" s="62" t="n"/>
     </row>
     <row r="44">
       <c r="B44" s="5" t="n"/>
-      <c r="S44" s="61" t="n"/>
+      <c r="S44" s="62" t="n"/>
     </row>
     <row r="45" ht="15.15" customHeight="1">
       <c r="B45" s="6" t="n"/>
@@ -3612,19 +4022,19 @@
       <c r="D45" s="7" t="n"/>
       <c r="E45" s="7" t="n"/>
       <c r="F45" s="7" t="n"/>
-      <c r="G45" s="73" t="n"/>
-      <c r="H45" s="73" t="n"/>
-      <c r="I45" s="73" t="n"/>
-      <c r="J45" s="73" t="n"/>
-      <c r="K45" s="73" t="n"/>
-      <c r="L45" s="73" t="n"/>
+      <c r="G45" s="75" t="n"/>
+      <c r="H45" s="75" t="n"/>
+      <c r="I45" s="75" t="n"/>
+      <c r="J45" s="75" t="n"/>
+      <c r="K45" s="75" t="n"/>
+      <c r="L45" s="75" t="n"/>
       <c r="M45" s="7" t="n"/>
       <c r="N45" s="7" t="n"/>
       <c r="O45" s="7" t="n"/>
       <c r="P45" s="7" t="n"/>
       <c r="Q45" s="7" t="n"/>
       <c r="R45" s="7" t="n"/>
-      <c r="S45" s="63" t="n"/>
+      <c r="S45" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -3691,8 +4101,8 @@
   </sheetPr>
   <dimension ref="B2:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3726,7 +4136,7 @@
     </row>
     <row r="3">
       <c r="B3" s="5" t="n"/>
-      <c r="P3" s="61" t="n"/>
+      <c r="P3" s="62" t="n"/>
     </row>
     <row r="4">
       <c r="B4" s="5" t="n"/>
@@ -3735,7 +4145,7 @@
           <t>FOU F 01 00 770</t>
         </is>
       </c>
-      <c r="P4" s="61" t="n"/>
+      <c r="P4" s="62" t="n"/>
     </row>
     <row r="5" ht="29.55" customHeight="1">
       <c r="B5" s="6" t="n"/>
@@ -3756,7 +4166,7 @@
       <c r="M5" s="7" t="n"/>
       <c r="N5" s="7" t="n"/>
       <c r="O5" s="7" t="n"/>
-      <c r="P5" s="63" t="n"/>
+      <c r="P5" s="64" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="B6" s="9" t="inlineStr">
@@ -3766,14 +4176,14 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>06-02-24</t>
+          <t>23-09-24</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="10" t="n"/>
       <c r="F6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">           SHIFT :-</t>
+          <t>SHIFT :-</t>
         </is>
       </c>
       <c r="G6" s="11" t="inlineStr">
@@ -3796,16 +4206,16 @@
       <c r="L6" s="10" t="n"/>
       <c r="M6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MELTERS:-</t>
+          <t>MELTERS:-</t>
         </is>
       </c>
       <c r="N6" s="10" t="n"/>
       <c r="O6" s="10" t="inlineStr">
         <is>
-          <t>Mult</t>
-        </is>
-      </c>
-      <c r="P6" s="74" t="n"/>
+          <t>Mukya</t>
+        </is>
+      </c>
+      <c r="P6" s="76" t="n"/>
     </row>
     <row r="7" ht="15.15" customHeight="1">
       <c r="B7" s="12" t="n"/>
@@ -3826,7 +4236,7 @@
       <c r="M7" s="17" t="n"/>
       <c r="N7" s="17" t="n"/>
       <c r="O7" s="17" t="n"/>
-      <c r="P7" s="75" t="n"/>
+      <c r="P7" s="77" t="n"/>
     </row>
     <row r="8" ht="15.15" customHeight="1">
       <c r="B8" s="12" t="inlineStr">
@@ -3844,10 +4254,14 @@
       <c r="F8" s="19" t="n"/>
       <c r="G8" s="20" t="inlineStr">
         <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H8" s="21" t="inlineStr">
+        <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="H8" s="21" t="n"/>
       <c r="I8" s="21" t="n"/>
       <c r="J8" s="21" t="n"/>
       <c r="K8" s="21" t="n"/>
@@ -3855,7 +4269,7 @@
       <c r="M8" s="21" t="n"/>
       <c r="N8" s="21" t="n"/>
       <c r="O8" s="21" t="n"/>
-      <c r="P8" s="76" t="n"/>
+      <c r="P8" s="78" t="n"/>
     </row>
     <row r="9" ht="15.15" customHeight="1">
       <c r="B9" s="12" t="inlineStr">
@@ -3873,10 +4287,14 @@
       <c r="F9" s="19" t="n"/>
       <c r="G9" s="20" t="inlineStr">
         <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="H9" s="21" t="n"/>
+          <t>5456</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
       <c r="I9" s="21" t="n"/>
       <c r="J9" s="21" t="n"/>
       <c r="K9" s="21" t="n"/>
@@ -3884,7 +4302,7 @@
       <c r="M9" s="21" t="n"/>
       <c r="N9" s="21" t="n"/>
       <c r="O9" s="21" t="n"/>
-      <c r="P9" s="76" t="n"/>
+      <c r="P9" s="78" t="n"/>
     </row>
     <row r="10" ht="15.15" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -3898,10 +4316,14 @@
       <c r="F10" s="23" t="n"/>
       <c r="G10" s="20" t="inlineStr">
         <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="H10" s="21" t="n"/>
+          <t>8787</t>
+        </is>
+      </c>
+      <c r="H10" s="21" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
       <c r="I10" s="21" t="n"/>
       <c r="J10" s="21" t="n"/>
       <c r="K10" s="21" t="n"/>
@@ -3909,7 +4331,7 @@
       <c r="M10" s="21" t="n"/>
       <c r="N10" s="21" t="n"/>
       <c r="O10" s="21" t="n"/>
-      <c r="P10" s="76" t="n"/>
+      <c r="P10" s="78" t="n"/>
     </row>
     <row r="11" ht="15.15" customHeight="1">
       <c r="B11" s="2" t="inlineStr">
@@ -3930,7 +4352,7 @@
       <c r="M11" s="21" t="n"/>
       <c r="N11" s="21" t="n"/>
       <c r="O11" s="21" t="n"/>
-      <c r="P11" s="76" t="n"/>
+      <c r="P11" s="78" t="n"/>
     </row>
     <row r="12" ht="15.15" customHeight="1">
       <c r="B12" s="2" t="n"/>
@@ -3944,14 +4366,14 @@
       <c r="F12" s="14" t="n"/>
       <c r="G12" s="20" t="n"/>
       <c r="H12" s="21" t="n"/>
-      <c r="I12" s="77" t="n"/>
-      <c r="J12" s="77" t="n"/>
-      <c r="K12" s="77" t="n"/>
-      <c r="L12" s="77" t="n"/>
-      <c r="M12" s="77" t="n"/>
-      <c r="N12" s="77" t="n"/>
-      <c r="O12" s="77" t="n"/>
-      <c r="P12" s="78" t="n"/>
+      <c r="I12" s="79" t="n"/>
+      <c r="J12" s="79" t="n"/>
+      <c r="K12" s="79" t="n"/>
+      <c r="L12" s="79" t="n"/>
+      <c r="M12" s="79" t="n"/>
+      <c r="N12" s="79" t="n"/>
+      <c r="O12" s="79" t="n"/>
+      <c r="P12" s="80" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="B13" s="25" t="inlineStr">
@@ -3965,7 +4387,7 @@
           <t>Pure Aluminum</t>
         </is>
       </c>
-      <c r="E13" s="28" t="inlineStr">
+      <c r="E13" s="119" t="inlineStr">
         <is>
           <t>As per instruction</t>
         </is>
@@ -3977,18 +4399,22 @@
       </c>
       <c r="G13" s="20" t="inlineStr">
         <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="H13" s="21" t="n"/>
-      <c r="I13" s="77" t="n"/>
-      <c r="J13" s="77" t="n"/>
-      <c r="K13" s="77" t="n"/>
-      <c r="L13" s="77" t="n"/>
-      <c r="M13" s="77" t="n"/>
-      <c r="N13" s="77" t="n"/>
-      <c r="O13" s="77" t="n"/>
-      <c r="P13" s="78" t="n"/>
+          <t>5567</t>
+        </is>
+      </c>
+      <c r="H13" s="21" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="I13" s="79" t="n"/>
+      <c r="J13" s="79" t="n"/>
+      <c r="K13" s="79" t="n"/>
+      <c r="L13" s="79" t="n"/>
+      <c r="M13" s="79" t="n"/>
+      <c r="N13" s="79" t="n"/>
+      <c r="O13" s="79" t="n"/>
+      <c r="P13" s="80" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="30" t="n"/>
@@ -3998,7 +4424,7 @@
           <t>Cu</t>
         </is>
       </c>
-      <c r="E14" s="33" t="n"/>
+      <c r="E14" s="67" t="n"/>
       <c r="F14" s="34" t="inlineStr">
         <is>
           <t>Kg</t>
@@ -4006,18 +4432,22 @@
       </c>
       <c r="G14" s="20" t="inlineStr">
         <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="H14" s="21" t="n"/>
-      <c r="I14" s="77" t="n"/>
-      <c r="J14" s="77" t="n"/>
-      <c r="K14" s="77" t="n"/>
-      <c r="L14" s="77" t="n"/>
-      <c r="M14" s="77" t="n"/>
-      <c r="N14" s="77" t="n"/>
-      <c r="O14" s="77" t="n"/>
-      <c r="P14" s="78" t="n"/>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="H14" s="21" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="I14" s="79" t="n"/>
+      <c r="J14" s="79" t="n"/>
+      <c r="K14" s="79" t="n"/>
+      <c r="L14" s="79" t="n"/>
+      <c r="M14" s="79" t="n"/>
+      <c r="N14" s="79" t="n"/>
+      <c r="O14" s="79" t="n"/>
+      <c r="P14" s="80" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="30" t="n"/>
@@ -4027,22 +4457,30 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="E15" s="33" t="n"/>
+      <c r="E15" s="67" t="n"/>
       <c r="F15" s="34" t="inlineStr">
         <is>
           <t>Kg</t>
         </is>
       </c>
-      <c r="G15" s="20" t="n"/>
-      <c r="H15" s="21" t="n"/>
-      <c r="I15" s="77" t="n"/>
-      <c r="J15" s="77" t="n"/>
-      <c r="K15" s="77" t="n"/>
-      <c r="L15" s="77" t="n"/>
-      <c r="M15" s="77" t="n"/>
-      <c r="N15" s="77" t="n"/>
-      <c r="O15" s="77" t="n"/>
-      <c r="P15" s="78" t="n"/>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H15" s="21" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="I15" s="79" t="n"/>
+      <c r="J15" s="79" t="n"/>
+      <c r="K15" s="79" t="n"/>
+      <c r="L15" s="79" t="n"/>
+      <c r="M15" s="79" t="n"/>
+      <c r="N15" s="79" t="n"/>
+      <c r="O15" s="79" t="n"/>
+      <c r="P15" s="80" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="30" t="n"/>
@@ -4052,22 +4490,30 @@
           <t>Mg</t>
         </is>
       </c>
-      <c r="E16" s="33" t="n"/>
+      <c r="E16" s="67" t="n"/>
       <c r="F16" s="34" t="inlineStr">
         <is>
           <t>Kg</t>
         </is>
       </c>
-      <c r="G16" s="20" t="n"/>
-      <c r="H16" s="21" t="n"/>
-      <c r="I16" s="77" t="n"/>
-      <c r="J16" s="77" t="n"/>
-      <c r="K16" s="77" t="n"/>
-      <c r="L16" s="77" t="n"/>
-      <c r="M16" s="77" t="n"/>
-      <c r="N16" s="77" t="n"/>
-      <c r="O16" s="77" t="n"/>
-      <c r="P16" s="78" t="n"/>
+      <c r="G16" s="20" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="H16" s="21" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="I16" s="79" t="n"/>
+      <c r="J16" s="79" t="n"/>
+      <c r="K16" s="79" t="n"/>
+      <c r="L16" s="79" t="n"/>
+      <c r="M16" s="79" t="n"/>
+      <c r="N16" s="79" t="n"/>
+      <c r="O16" s="79" t="n"/>
+      <c r="P16" s="80" t="n"/>
     </row>
     <row r="17" ht="15.15" customHeight="1">
       <c r="B17" s="35" t="n"/>
@@ -4077,22 +4523,30 @@
           <t xml:space="preserve">TiB </t>
         </is>
       </c>
-      <c r="E17" s="38" t="n"/>
+      <c r="E17" s="120" t="n"/>
       <c r="F17" s="34" t="inlineStr">
         <is>
           <t>Kg</t>
         </is>
       </c>
-      <c r="G17" s="20" t="n"/>
-      <c r="H17" s="21" t="n"/>
-      <c r="I17" s="77" t="n"/>
-      <c r="J17" s="77" t="n"/>
-      <c r="K17" s="77" t="n"/>
-      <c r="L17" s="77" t="n"/>
-      <c r="M17" s="77" t="n"/>
-      <c r="N17" s="77" t="n"/>
-      <c r="O17" s="77" t="n"/>
-      <c r="P17" s="78" t="n"/>
+      <c r="G17" s="20" t="inlineStr">
+        <is>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="H17" s="21" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="I17" s="79" t="n"/>
+      <c r="J17" s="79" t="n"/>
+      <c r="K17" s="79" t="n"/>
+      <c r="L17" s="79" t="n"/>
+      <c r="M17" s="79" t="n"/>
+      <c r="N17" s="79" t="n"/>
+      <c r="O17" s="79" t="n"/>
+      <c r="P17" s="80" t="n"/>
     </row>
     <row r="18" ht="15.15" customHeight="1">
       <c r="B18" s="39" t="inlineStr">
@@ -4112,19 +4566,23 @@
           <t>Kg</t>
         </is>
       </c>
-      <c r="G18" s="100" t="n"/>
-      <c r="H18" s="100" t="n"/>
-      <c r="I18" s="77" t="n"/>
-      <c r="J18" s="77" t="n"/>
-      <c r="K18" s="77" t="n"/>
-      <c r="L18" s="77" t="n"/>
-      <c r="M18" s="77" t="n"/>
-      <c r="N18" s="77" t="n"/>
-      <c r="O18" s="77" t="n"/>
-      <c r="P18" s="78" t="n"/>
+      <c r="G18" s="121" t="n"/>
+      <c r="H18" s="121" t="n"/>
+      <c r="I18" s="79" t="n"/>
+      <c r="J18" s="79" t="n"/>
+      <c r="K18" s="79" t="n"/>
+      <c r="L18" s="79" t="n"/>
+      <c r="M18" s="79" t="n"/>
+      <c r="N18" s="79" t="n"/>
+      <c r="O18" s="79" t="n"/>
+      <c r="P18" s="80" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="B19" s="45" t="inlineStr"/>
+      <c r="B19" s="45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="C19" s="40" t="inlineStr">
         <is>
           <t>Total Elements Charge WT</t>
@@ -4182,7 +4640,7 @@
           <t>OK / NOT OK</t>
         </is>
       </c>
-      <c r="P19" s="79" t="inlineStr">
+      <c r="P19" s="81" t="inlineStr">
         <is>
           <t>OK / NOT OK</t>
         </is>
@@ -4200,7 +4658,7 @@
         </is>
       </c>
       <c r="D20" s="14" t="n"/>
-      <c r="E20" s="28" t="inlineStr">
+      <c r="E20" s="119" t="inlineStr">
         <is>
           <t>As per instruction</t>
         </is>
@@ -4210,16 +4668,24 @@
           <t>Kg</t>
         </is>
       </c>
-      <c r="G20" s="20" t="n"/>
-      <c r="H20" s="21" t="n"/>
-      <c r="I20" s="77" t="n"/>
-      <c r="J20" s="77" t="n"/>
-      <c r="K20" s="77" t="n"/>
-      <c r="L20" s="77" t="n"/>
-      <c r="M20" s="77" t="n"/>
-      <c r="N20" s="77" t="n"/>
-      <c r="O20" s="77" t="n"/>
-      <c r="P20" s="78" t="n"/>
+      <c r="G20" s="20" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="H20" s="21" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="I20" s="79" t="n"/>
+      <c r="J20" s="79" t="n"/>
+      <c r="K20" s="79" t="n"/>
+      <c r="L20" s="79" t="n"/>
+      <c r="M20" s="79" t="n"/>
+      <c r="N20" s="79" t="n"/>
+      <c r="O20" s="79" t="n"/>
+      <c r="P20" s="80" t="n"/>
     </row>
     <row r="21" ht="15.15" customHeight="1">
       <c r="B21" s="51" t="n"/>
@@ -4229,22 +4695,30 @@
         </is>
       </c>
       <c r="D21" s="14" t="n"/>
-      <c r="E21" s="33" t="n"/>
+      <c r="E21" s="67" t="n"/>
       <c r="F21" s="50" t="inlineStr">
         <is>
           <t>Kg</t>
         </is>
       </c>
-      <c r="G21" s="20" t="n"/>
-      <c r="H21" s="21" t="n"/>
-      <c r="I21" s="77" t="n"/>
-      <c r="J21" s="77" t="n"/>
-      <c r="K21" s="77" t="n"/>
-      <c r="L21" s="77" t="n"/>
-      <c r="M21" s="77" t="n"/>
-      <c r="N21" s="77" t="n"/>
-      <c r="O21" s="77" t="n"/>
-      <c r="P21" s="78" t="n"/>
+      <c r="G21" s="20" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H21" s="21" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="I21" s="79" t="n"/>
+      <c r="J21" s="79" t="n"/>
+      <c r="K21" s="79" t="n"/>
+      <c r="L21" s="79" t="n"/>
+      <c r="M21" s="79" t="n"/>
+      <c r="N21" s="79" t="n"/>
+      <c r="O21" s="79" t="n"/>
+      <c r="P21" s="80" t="n"/>
     </row>
     <row r="22" ht="15.15" customHeight="1">
       <c r="B22" s="52" t="n"/>
@@ -4254,22 +4728,30 @@
         </is>
       </c>
       <c r="D22" s="14" t="n"/>
-      <c r="E22" s="38" t="n"/>
+      <c r="E22" s="120" t="n"/>
       <c r="F22" s="50" t="inlineStr">
         <is>
           <t>Kg</t>
         </is>
       </c>
-      <c r="G22" s="20" t="n"/>
-      <c r="H22" s="21" t="n"/>
-      <c r="I22" s="77" t="n"/>
-      <c r="J22" s="77" t="n"/>
-      <c r="K22" s="77" t="n"/>
-      <c r="L22" s="77" t="n"/>
-      <c r="M22" s="77" t="n"/>
-      <c r="N22" s="77" t="n"/>
-      <c r="O22" s="77" t="n"/>
-      <c r="P22" s="78" t="n"/>
+      <c r="G22" s="20" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="H22" s="21" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="I22" s="79" t="n"/>
+      <c r="J22" s="79" t="n"/>
+      <c r="K22" s="79" t="n"/>
+      <c r="L22" s="79" t="n"/>
+      <c r="M22" s="79" t="n"/>
+      <c r="N22" s="79" t="n"/>
+      <c r="O22" s="79" t="n"/>
+      <c r="P22" s="80" t="n"/>
     </row>
     <row r="23" ht="15.15" customHeight="1">
       <c r="B23" s="45" t="inlineStr">
@@ -4291,14 +4773,14 @@
       </c>
       <c r="G23" s="20" t="n"/>
       <c r="H23" s="21" t="n"/>
-      <c r="I23" s="77" t="n"/>
-      <c r="J23" s="77" t="n"/>
-      <c r="K23" s="77" t="n"/>
-      <c r="L23" s="77" t="n"/>
-      <c r="M23" s="77" t="n"/>
-      <c r="N23" s="77" t="n"/>
-      <c r="O23" s="77" t="n"/>
-      <c r="P23" s="78" t="n"/>
+      <c r="I23" s="79" t="n"/>
+      <c r="J23" s="79" t="n"/>
+      <c r="K23" s="79" t="n"/>
+      <c r="L23" s="79" t="n"/>
+      <c r="M23" s="79" t="n"/>
+      <c r="N23" s="79" t="n"/>
+      <c r="O23" s="79" t="n"/>
+      <c r="P23" s="80" t="n"/>
     </row>
     <row r="24" ht="15.15" customHeight="1">
       <c r="B24" s="23" t="inlineStr">
@@ -4320,16 +4802,16 @@
       </c>
       <c r="G24" s="20" t="n"/>
       <c r="H24" s="21" t="n"/>
-      <c r="I24" s="77" t="n"/>
-      <c r="J24" s="77" t="n"/>
-      <c r="K24" s="77" t="n"/>
-      <c r="L24" s="77" t="n"/>
-      <c r="M24" s="77" t="n"/>
-      <c r="N24" s="77" t="n"/>
-      <c r="O24" s="77" t="n"/>
-      <c r="P24" s="78" t="n"/>
-    </row>
-    <row r="25" ht="15.15" customHeight="1">
+      <c r="I24" s="79" t="n"/>
+      <c r="J24" s="79" t="n"/>
+      <c r="K24" s="79" t="n"/>
+      <c r="L24" s="79" t="n"/>
+      <c r="M24" s="79" t="n"/>
+      <c r="N24" s="79" t="n"/>
+      <c r="O24" s="79" t="n"/>
+      <c r="P24" s="80" t="n"/>
+    </row>
+    <row r="25">
       <c r="B25" s="23" t="n"/>
       <c r="C25" s="53" t="inlineStr">
         <is>
@@ -4341,14 +4823,14 @@
       <c r="F25" s="56" t="n"/>
       <c r="G25" s="57" t="n"/>
       <c r="H25" s="21" t="n"/>
-      <c r="I25" s="77" t="n"/>
-      <c r="J25" s="77" t="n"/>
-      <c r="K25" s="77" t="n"/>
-      <c r="L25" s="77" t="n"/>
-      <c r="M25" s="77" t="n"/>
-      <c r="N25" s="77" t="n"/>
-      <c r="O25" s="77" t="n"/>
-      <c r="P25" s="78" t="n"/>
+      <c r="I25" s="79" t="n"/>
+      <c r="J25" s="79" t="n"/>
+      <c r="K25" s="79" t="n"/>
+      <c r="L25" s="79" t="n"/>
+      <c r="M25" s="79" t="n"/>
+      <c r="N25" s="79" t="n"/>
+      <c r="O25" s="79" t="n"/>
+      <c r="P25" s="80" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="B26" s="58" t="inlineStr">
@@ -4372,51 +4854,67 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G26" s="57" t="n"/>
-      <c r="H26" s="21" t="n"/>
-      <c r="I26" s="77" t="n"/>
-      <c r="J26" s="77" t="n"/>
-      <c r="K26" s="77" t="n"/>
-      <c r="L26" s="77" t="n"/>
-      <c r="M26" s="77" t="n"/>
-      <c r="N26" s="77" t="n"/>
-      <c r="O26" s="77" t="n"/>
-      <c r="P26" s="78" t="n"/>
+      <c r="G26" s="57" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H26" s="21" t="inlineStr">
+        <is>
+          <t>7858</t>
+        </is>
+      </c>
+      <c r="I26" s="79" t="n"/>
+      <c r="J26" s="79" t="n"/>
+      <c r="K26" s="79" t="n"/>
+      <c r="L26" s="79" t="n"/>
+      <c r="M26" s="79" t="n"/>
+      <c r="N26" s="79" t="n"/>
+      <c r="O26" s="79" t="n"/>
+      <c r="P26" s="80" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="B27" s="33" t="n"/>
+      <c r="B27" s="67" t="n"/>
       <c r="C27" s="5" t="inlineStr">
         <is>
           <t>CHARGING END AT</t>
         </is>
       </c>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="62" t="n"/>
+      <c r="D27" s="62" t="n"/>
+      <c r="E27" s="63" t="n"/>
       <c r="F27" s="60" t="inlineStr">
         <is>
           <t>Timing</t>
         </is>
       </c>
-      <c r="G27" s="57" t="n"/>
-      <c r="H27" s="21" t="n"/>
-      <c r="I27" s="77" t="n"/>
-      <c r="J27" s="77" t="n"/>
-      <c r="K27" s="77" t="n"/>
-      <c r="L27" s="77" t="n"/>
-      <c r="M27" s="77" t="n"/>
-      <c r="N27" s="77" t="n"/>
-      <c r="O27" s="77" t="n"/>
-      <c r="P27" s="78" t="n"/>
+      <c r="G27" s="57" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H27" s="21" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="I27" s="79" t="n"/>
+      <c r="J27" s="79" t="n"/>
+      <c r="K27" s="79" t="n"/>
+      <c r="L27" s="79" t="n"/>
+      <c r="M27" s="79" t="n"/>
+      <c r="N27" s="79" t="n"/>
+      <c r="O27" s="79" t="n"/>
+      <c r="P27" s="80" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="33" t="n"/>
+      <c r="B28" s="67" t="n"/>
       <c r="C28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">MELT READY AT </t>
         </is>
       </c>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="62" t="inlineStr">
+      <c r="D28" s="62" t="n"/>
+      <c r="E28" s="63" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -4426,26 +4924,34 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G28" s="57" t="n"/>
-      <c r="H28" s="21" t="n"/>
-      <c r="I28" s="77" t="n"/>
-      <c r="J28" s="77" t="n"/>
-      <c r="K28" s="77" t="n"/>
-      <c r="L28" s="77" t="n"/>
-      <c r="M28" s="77" t="n"/>
-      <c r="N28" s="77" t="n"/>
-      <c r="O28" s="77" t="n"/>
-      <c r="P28" s="78" t="n"/>
+      <c r="G28" s="57" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H28" s="21" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="I28" s="79" t="n"/>
+      <c r="J28" s="79" t="n"/>
+      <c r="K28" s="79" t="n"/>
+      <c r="L28" s="79" t="n"/>
+      <c r="M28" s="79" t="n"/>
+      <c r="N28" s="79" t="n"/>
+      <c r="O28" s="79" t="n"/>
+      <c r="P28" s="80" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="33" t="n"/>
+      <c r="B29" s="67" t="n"/>
       <c r="C29" s="5" t="inlineStr">
         <is>
           <t>MELT CHEMISTRY</t>
         </is>
       </c>
-      <c r="D29" s="61" t="n"/>
-      <c r="E29" s="62" t="n"/>
+      <c r="D29" s="62" t="n"/>
+      <c r="E29" s="63" t="n"/>
       <c r="F29" s="47" t="inlineStr">
         <is>
           <t>OK / NOT  OK</t>
@@ -4496,7 +5002,7 @@
           <t>OK / NOT OK</t>
         </is>
       </c>
-      <c r="P29" s="79" t="inlineStr">
+      <c r="P29" s="81" t="inlineStr">
         <is>
           <t>OK / NOT OK</t>
         </is>
@@ -4509,15 +5015,23 @@
           <t>TIME OF CHEMISTRY</t>
         </is>
       </c>
-      <c r="D30" s="61" t="n"/>
-      <c r="E30" s="62" t="n"/>
+      <c r="D30" s="62" t="n"/>
+      <c r="E30" s="63" t="n"/>
       <c r="F30" s="47" t="inlineStr">
         <is>
           <t>Timing</t>
         </is>
       </c>
-      <c r="G30" s="48" t="n"/>
-      <c r="H30" s="48" t="n"/>
+      <c r="G30" s="48" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="H30" s="48" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
       <c r="I30" s="48" t="n"/>
       <c r="J30" s="48" t="n"/>
       <c r="K30" s="48" t="n"/>
@@ -4525,7 +5039,7 @@
       <c r="M30" s="48" t="n"/>
       <c r="N30" s="48" t="n"/>
       <c r="O30" s="48" t="n"/>
-      <c r="P30" s="79" t="n"/>
+      <c r="P30" s="81" t="n"/>
     </row>
     <row r="31" ht="15.15" customHeight="1">
       <c r="B31" s="51" t="n"/>
@@ -4534,23 +5048,31 @@
           <t>TEMP BEFORE TAPPING</t>
         </is>
       </c>
-      <c r="D31" s="63" t="n"/>
+      <c r="D31" s="64" t="n"/>
       <c r="E31" s="6" t="n"/>
-      <c r="F31" s="64" t="inlineStr">
+      <c r="F31" s="65" t="inlineStr">
         <is>
           <t>770°C ± 20°C</t>
         </is>
       </c>
-      <c r="G31" s="57" t="n"/>
-      <c r="H31" s="21" t="n"/>
-      <c r="I31" s="77" t="n"/>
-      <c r="J31" s="77" t="n"/>
-      <c r="K31" s="77" t="n"/>
-      <c r="L31" s="77" t="n"/>
-      <c r="M31" s="77" t="n"/>
-      <c r="N31" s="77" t="n"/>
-      <c r="O31" s="77" t="n"/>
-      <c r="P31" s="78" t="n"/>
+      <c r="G31" s="57" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="H31" s="21" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I31" s="79" t="n"/>
+      <c r="J31" s="79" t="n"/>
+      <c r="K31" s="79" t="n"/>
+      <c r="L31" s="79" t="n"/>
+      <c r="M31" s="79" t="n"/>
+      <c r="N31" s="79" t="n"/>
+      <c r="O31" s="79" t="n"/>
+      <c r="P31" s="80" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="51" t="n"/>
@@ -4566,33 +5088,41 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G32" s="57" t="n"/>
-      <c r="H32" s="21" t="n"/>
-      <c r="I32" s="77" t="n"/>
-      <c r="J32" s="77" t="n"/>
-      <c r="K32" s="77" t="n"/>
-      <c r="L32" s="77" t="n"/>
-      <c r="M32" s="77" t="n"/>
-      <c r="N32" s="77" t="n"/>
-      <c r="O32" s="77" t="n"/>
-      <c r="P32" s="78" t="n"/>
+      <c r="G32" s="57" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H32" s="21" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="I32" s="79" t="n"/>
+      <c r="J32" s="79" t="n"/>
+      <c r="K32" s="79" t="n"/>
+      <c r="L32" s="79" t="n"/>
+      <c r="M32" s="79" t="n"/>
+      <c r="N32" s="79" t="n"/>
+      <c r="O32" s="79" t="n"/>
+      <c r="P32" s="80" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="51" t="n"/>
       <c r="C33" s="5" t="n"/>
-      <c r="D33" s="61" t="n"/>
+      <c r="D33" s="62" t="n"/>
       <c r="E33" s="5" t="n"/>
       <c r="F33" s="60" t="n"/>
       <c r="G33" s="57" t="n"/>
       <c r="H33" s="21" t="n"/>
-      <c r="I33" s="77" t="n"/>
-      <c r="J33" s="77" t="n"/>
-      <c r="K33" s="77" t="n"/>
-      <c r="L33" s="77" t="n"/>
-      <c r="M33" s="77" t="n"/>
-      <c r="N33" s="77" t="n"/>
-      <c r="O33" s="77" t="n"/>
-      <c r="P33" s="78" t="n"/>
+      <c r="I33" s="79" t="n"/>
+      <c r="J33" s="79" t="n"/>
+      <c r="K33" s="79" t="n"/>
+      <c r="L33" s="79" t="n"/>
+      <c r="M33" s="79" t="n"/>
+      <c r="N33" s="79" t="n"/>
+      <c r="O33" s="79" t="n"/>
+      <c r="P33" s="80" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="51" t="n"/>
@@ -4601,110 +5131,118 @@
           <t>TAPPING END</t>
         </is>
       </c>
-      <c r="D34" s="61" t="n"/>
+      <c r="D34" s="62" t="n"/>
       <c r="E34" s="5" t="n"/>
       <c r="F34" s="60" t="inlineStr">
         <is>
           <t>Timing</t>
         </is>
       </c>
-      <c r="G34" s="57" t="n"/>
-      <c r="H34" s="21" t="n"/>
-      <c r="I34" s="77" t="n"/>
-      <c r="J34" s="77" t="n"/>
-      <c r="K34" s="77" t="n"/>
-      <c r="L34" s="77" t="n"/>
-      <c r="M34" s="77" t="n"/>
-      <c r="N34" s="77" t="n"/>
-      <c r="O34" s="77" t="n"/>
-      <c r="P34" s="78" t="n"/>
+      <c r="G34" s="57" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="H34" s="21" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="I34" s="79" t="n"/>
+      <c r="J34" s="79" t="n"/>
+      <c r="K34" s="79" t="n"/>
+      <c r="L34" s="79" t="n"/>
+      <c r="M34" s="79" t="n"/>
+      <c r="N34" s="79" t="n"/>
+      <c r="O34" s="79" t="n"/>
+      <c r="P34" s="80" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="51" t="n"/>
       <c r="C35" s="5" t="n"/>
-      <c r="D35" s="61" t="n"/>
+      <c r="D35" s="62" t="n"/>
       <c r="E35" s="5" t="n"/>
-      <c r="F35" s="65" t="n"/>
+      <c r="F35" s="66" t="n"/>
       <c r="G35" s="57" t="n"/>
       <c r="H35" s="21" t="n"/>
-      <c r="I35" s="77" t="n"/>
-      <c r="J35" s="77" t="n"/>
-      <c r="K35" s="77" t="n"/>
-      <c r="L35" s="77" t="n"/>
-      <c r="M35" s="77" t="n"/>
-      <c r="N35" s="77" t="n"/>
-      <c r="O35" s="77" t="n"/>
-      <c r="P35" s="78" t="n"/>
+      <c r="I35" s="79" t="n"/>
+      <c r="J35" s="79" t="n"/>
+      <c r="K35" s="79" t="n"/>
+      <c r="L35" s="79" t="n"/>
+      <c r="M35" s="79" t="n"/>
+      <c r="N35" s="79" t="n"/>
+      <c r="O35" s="79" t="n"/>
+      <c r="P35" s="80" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="51" t="n"/>
       <c r="C36" s="5" t="n"/>
-      <c r="D36" s="61" t="n"/>
+      <c r="D36" s="62" t="n"/>
       <c r="E36" s="5" t="n"/>
-      <c r="F36" s="65" t="n"/>
+      <c r="F36" s="66" t="n"/>
       <c r="G36" s="57" t="n"/>
       <c r="H36" s="21" t="n"/>
-      <c r="I36" s="77" t="n"/>
-      <c r="J36" s="77" t="n"/>
-      <c r="K36" s="77" t="n"/>
-      <c r="L36" s="77" t="n"/>
-      <c r="M36" s="77" t="n"/>
-      <c r="N36" s="77" t="n"/>
-      <c r="O36" s="77" t="n"/>
-      <c r="P36" s="78" t="n"/>
+      <c r="I36" s="79" t="n"/>
+      <c r="J36" s="79" t="n"/>
+      <c r="K36" s="79" t="n"/>
+      <c r="L36" s="79" t="n"/>
+      <c r="M36" s="79" t="n"/>
+      <c r="N36" s="79" t="n"/>
+      <c r="O36" s="79" t="n"/>
+      <c r="P36" s="80" t="n"/>
     </row>
     <row r="37" ht="15.15" customHeight="1">
       <c r="B37" s="52" t="n"/>
       <c r="C37" s="6" t="n"/>
-      <c r="D37" s="63" t="n"/>
+      <c r="D37" s="64" t="n"/>
       <c r="E37" s="6" t="n"/>
-      <c r="F37" s="65" t="n"/>
+      <c r="F37" s="66" t="n"/>
       <c r="G37" s="57" t="n"/>
       <c r="H37" s="21" t="n"/>
-      <c r="I37" s="77" t="n"/>
-      <c r="J37" s="77" t="n"/>
-      <c r="K37" s="77" t="n"/>
-      <c r="L37" s="77" t="n"/>
-      <c r="M37" s="77" t="n"/>
-      <c r="N37" s="77" t="n"/>
-      <c r="O37" s="77" t="n"/>
-      <c r="P37" s="78" t="n"/>
-    </row>
-    <row r="38" ht="15.15" customHeight="1">
+      <c r="I37" s="79" t="n"/>
+      <c r="J37" s="79" t="n"/>
+      <c r="K37" s="79" t="n"/>
+      <c r="L37" s="79" t="n"/>
+      <c r="M37" s="79" t="n"/>
+      <c r="N37" s="79" t="n"/>
+      <c r="O37" s="79" t="n"/>
+      <c r="P37" s="80" t="n"/>
+    </row>
+    <row r="38">
       <c r="B38" s="5" t="inlineStr">
         <is>
           <t>REMARK IN ANY</t>
         </is>
       </c>
-      <c r="D38" s="61" t="n"/>
-      <c r="E38" s="33" t="n"/>
-      <c r="F38" s="66" t="n"/>
-      <c r="G38" s="67" t="n"/>
-      <c r="H38" s="68" t="n"/>
-      <c r="I38" s="68" t="n"/>
-      <c r="J38" s="68" t="n"/>
-      <c r="K38" s="68" t="n"/>
-      <c r="L38" s="68" t="n"/>
-      <c r="M38" s="68" t="n"/>
-      <c r="N38" s="68" t="n"/>
-      <c r="O38" s="68" t="n"/>
-      <c r="P38" s="80" t="n"/>
+      <c r="D38" s="62" t="n"/>
+      <c r="E38" s="67" t="n"/>
+      <c r="F38" s="68" t="n"/>
+      <c r="G38" s="113" t="n"/>
+      <c r="H38" s="114" t="n"/>
+      <c r="I38" s="114" t="n"/>
+      <c r="J38" s="114" t="n"/>
+      <c r="K38" s="114" t="n"/>
+      <c r="L38" s="114" t="n"/>
+      <c r="M38" s="114" t="n"/>
+      <c r="N38" s="114" t="n"/>
+      <c r="O38" s="114" t="n"/>
+      <c r="P38" s="115" t="n"/>
     </row>
     <row r="39" ht="48.75" customHeight="1">
       <c r="B39" s="5" t="n"/>
-      <c r="D39" s="61" t="n"/>
-      <c r="E39" s="33" t="n"/>
-      <c r="F39" s="66" t="n"/>
-      <c r="G39" s="69" t="n"/>
-      <c r="H39" s="70" t="n"/>
-      <c r="I39" s="70" t="n"/>
-      <c r="J39" s="70" t="n"/>
-      <c r="K39" s="70" t="n"/>
-      <c r="L39" s="70" t="n"/>
-      <c r="M39" s="70" t="n"/>
-      <c r="N39" s="70" t="n"/>
-      <c r="O39" s="70" t="n"/>
-      <c r="P39" s="81" t="n"/>
+      <c r="D39" s="62" t="n"/>
+      <c r="E39" s="67" t="n"/>
+      <c r="F39" s="68" t="n"/>
+      <c r="G39" s="116" t="n"/>
+      <c r="H39" s="117" t="n"/>
+      <c r="I39" s="117" t="n"/>
+      <c r="J39" s="117" t="n"/>
+      <c r="K39" s="117" t="n"/>
+      <c r="L39" s="117" t="n"/>
+      <c r="M39" s="117" t="n"/>
+      <c r="N39" s="117" t="n"/>
+      <c r="O39" s="117" t="n"/>
+      <c r="P39" s="118" t="n"/>
     </row>
     <row r="40">
       <c r="B40" s="2" t="n"/>
@@ -4712,41 +5250,41 @@
       <c r="D40" s="3" t="n"/>
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
-      <c r="P40" s="61" t="n"/>
+      <c r="P40" s="62" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="5" t="n"/>
-      <c r="P41" s="61" t="n"/>
+      <c r="P41" s="62" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="5" t="n"/>
-      <c r="P42" s="61" t="n"/>
+      <c r="P42" s="62" t="n"/>
     </row>
     <row r="43" ht="18" customHeight="1">
       <c r="B43" s="5" t="n"/>
-      <c r="C43" s="71" t="inlineStr">
+      <c r="C43" s="73" t="inlineStr">
         <is>
           <t>Production Supervisor</t>
         </is>
       </c>
-      <c r="D43" s="71" t="n"/>
-      <c r="E43" s="71" t="n"/>
-      <c r="F43" s="71" t="n"/>
-      <c r="G43" s="72" t="n"/>
-      <c r="H43" s="71" t="n"/>
-      <c r="I43" s="71" t="n"/>
-      <c r="J43" s="71" t="n"/>
-      <c r="K43" s="71" t="inlineStr">
+      <c r="D43" s="73" t="n"/>
+      <c r="E43" s="73" t="n"/>
+      <c r="F43" s="73" t="n"/>
+      <c r="G43" s="74" t="n"/>
+      <c r="H43" s="73" t="n"/>
+      <c r="I43" s="73" t="n"/>
+      <c r="J43" s="73" t="n"/>
+      <c r="K43" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">Q.A Supervisor </t>
         </is>
       </c>
-      <c r="L43" s="71" t="n"/>
-      <c r="P43" s="61" t="n"/>
+      <c r="L43" s="73" t="n"/>
+      <c r="P43" s="62" t="n"/>
     </row>
     <row r="44">
       <c r="B44" s="5" t="n"/>
-      <c r="P44" s="61" t="n"/>
+      <c r="P44" s="62" t="n"/>
     </row>
     <row r="45" ht="15.15" customHeight="1">
       <c r="B45" s="6" t="n"/>
@@ -4754,7 +5292,7 @@
       <c r="D45" s="7" t="n"/>
       <c r="E45" s="7" t="n"/>
       <c r="F45" s="7" t="n"/>
-      <c r="G45" s="73" t="n"/>
+      <c r="G45" s="75" t="n"/>
       <c r="H45" s="7" t="n"/>
       <c r="I45" s="7" t="n"/>
       <c r="J45" s="7" t="n"/>
@@ -4763,7 +5301,7 @@
       <c r="M45" s="7" t="n"/>
       <c r="N45" s="7" t="n"/>
       <c r="O45" s="7" t="n"/>
-      <c r="P45" s="63" t="n"/>
+      <c r="P45" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
